--- a/2022/Symphony/APRIL/27.04.2022/MC Bank Statement April-2022.xlsx
+++ b/2022/Symphony/APRIL/27.04.2022/MC Bank Statement April-2022.xlsx
@@ -3222,6 +3222,9 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3367,9 +3370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4060,33 +4060,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="312"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="313"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="313"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="313"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="313"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4134,7 +4134,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="313"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>56</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="313"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>57</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="313"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>59</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="313"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>60</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="313"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>61</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="313"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>62</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="313"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>63</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="313"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>64</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="313"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="313"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4318,7 +4318,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="313"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4331,7 +4331,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="313"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4344,7 +4344,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="313"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4357,7 +4357,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="313"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4370,7 +4370,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="313"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4383,7 +4383,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4396,7 +4396,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4409,7 +4409,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4422,7 +4422,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4435,7 +4435,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4448,7 +4448,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4461,7 +4461,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="313"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4474,7 +4474,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="313"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4487,7 +4487,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="313"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4500,7 +4500,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="313"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4513,7 +4513,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="313"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4526,7 +4526,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="313"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4539,7 +4539,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="313"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4552,7 +4552,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="313"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4565,7 +4565,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="313"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4578,7 +4578,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="313"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4591,7 +4591,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="313"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4604,7 +4604,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="313"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4617,7 +4617,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="313"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4630,7 +4630,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="313"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4643,7 +4643,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="313"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4656,7 +4656,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="313"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4669,7 +4669,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="313"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4682,7 +4682,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="313"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4695,7 +4695,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="313"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4708,7 +4708,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="313"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4721,7 +4721,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="313"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4734,7 +4734,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="313"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4747,7 +4747,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="313"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4760,7 +4760,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="313"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4773,7 +4773,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="313"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4786,7 +4786,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="313"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4799,7 +4799,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="313"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4812,7 +4812,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="313"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4824,7 +4824,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="313"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4836,7 +4836,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="313"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4848,7 +4848,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="313"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4860,7 +4860,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="313"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4872,7 +4872,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="313"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4884,7 +4884,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="313"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4896,7 +4896,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="313"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4908,7 +4908,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="313"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4920,7 +4920,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="313"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4932,7 +4932,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="313"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4944,7 +4944,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="313"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4956,7 +4956,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="313"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4968,7 +4968,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="313"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4980,7 +4980,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="313"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4992,7 +4992,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="313"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5004,7 +5004,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="313"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5016,7 +5016,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="313"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5028,7 +5028,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="313"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5040,7 +5040,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="313"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5052,7 +5052,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="313"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5064,7 +5064,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="313"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5076,7 +5076,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="313"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5088,7 +5088,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="313"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5100,7 +5100,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="313"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5112,7 +5112,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="313"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5124,7 +5124,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="313"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5136,7 +5136,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="313"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5148,7 +5148,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="313"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5205,33 +5205,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="312"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="313"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="313"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="313"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="313"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="261"/>
       <c r="D6" s="261"/>
@@ -5279,7 +5279,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="313"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>200</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="313"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>206</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="313"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>212</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="313"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>213</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="313"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>217</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="313"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>218</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="313"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>221</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="313"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>222</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="313"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>224</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="313"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26" t="s">
         <v>227</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="313"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26" t="s">
         <v>231</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="313"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26" t="s">
         <v>232</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="313"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26" t="s">
         <v>233</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="313"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26" t="s">
         <v>235</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="313"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26" t="s">
         <v>238</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26" t="s">
         <v>241</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26" t="s">
         <v>244</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26" t="s">
         <v>246</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="302" t="s">
         <v>246</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26" t="s">
         <v>249</v>
       </c>
@@ -5641,7 +5641,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26" t="s">
         <v>252</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="313"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26" t="s">
         <v>257</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="313"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26" t="s">
         <v>264</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="313"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26" t="s">
         <v>268</v>
       </c>
@@ -5712,7 +5712,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="313"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26" t="s">
         <v>272</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="313"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="261"/>
       <c r="D32" s="261"/>
@@ -5742,7 +5742,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="313"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="261"/>
       <c r="D33" s="263"/>
@@ -5754,7 +5754,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="313"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="261"/>
       <c r="D34" s="261"/>
@@ -5766,7 +5766,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="313"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="261"/>
       <c r="D35" s="261"/>
@@ -5778,7 +5778,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="313"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="261"/>
       <c r="D36" s="261"/>
@@ -5790,7 +5790,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="313"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="261"/>
       <c r="D37" s="261"/>
@@ -5802,7 +5802,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="313"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="261"/>
       <c r="D38" s="261"/>
@@ -5814,7 +5814,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="313"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="261"/>
       <c r="D39" s="261"/>
@@ -5826,7 +5826,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="313"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="261"/>
       <c r="D40" s="261"/>
@@ -5838,7 +5838,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="313"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="261"/>
       <c r="D41" s="261"/>
@@ -5850,7 +5850,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="313"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="261"/>
       <c r="D42" s="261"/>
@@ -5862,7 +5862,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="313"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="261"/>
       <c r="D43" s="261"/>
@@ -5874,7 +5874,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="313"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="261"/>
       <c r="D44" s="261"/>
@@ -5886,7 +5886,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="313"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="261"/>
       <c r="D45" s="261"/>
@@ -5898,7 +5898,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="313"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="261"/>
       <c r="D46" s="261"/>
@@ -5910,7 +5910,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="313"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="261"/>
       <c r="D47" s="261"/>
@@ -5922,7 +5922,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="313"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="261"/>
       <c r="D48" s="261"/>
@@ -5934,7 +5934,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="313"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="261"/>
       <c r="D49" s="261"/>
@@ -5946,7 +5946,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="313"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="261"/>
       <c r="D50" s="261"/>
@@ -5958,7 +5958,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="313"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="261"/>
       <c r="D51" s="261"/>
@@ -5970,7 +5970,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="313"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="261"/>
       <c r="D52" s="261"/>
@@ -5982,7 +5982,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="313"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="261"/>
       <c r="D53" s="261"/>
@@ -5994,7 +5994,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="313"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="261"/>
       <c r="D54" s="261"/>
@@ -6006,7 +6006,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="313"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="261"/>
       <c r="D55" s="261"/>
@@ -6017,7 +6017,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="313"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="261"/>
       <c r="D56" s="261"/>
@@ -6028,7 +6028,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="313"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="261"/>
       <c r="D57" s="261"/>
@@ -6039,7 +6039,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="313"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="261"/>
       <c r="D58" s="261"/>
@@ -6050,7 +6050,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="313"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="261"/>
       <c r="D59" s="261"/>
@@ -6061,7 +6061,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="313"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="261"/>
       <c r="D60" s="261"/>
@@ -6072,7 +6072,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="313"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="261"/>
       <c r="D61" s="261"/>
@@ -6083,7 +6083,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="313"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="261"/>
       <c r="D62" s="261"/>
@@ -6094,7 +6094,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="313"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="261"/>
       <c r="D63" s="261"/>
@@ -6105,7 +6105,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="313"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="261"/>
       <c r="D64" s="261"/>
@@ -6116,7 +6116,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="313"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="261"/>
       <c r="D65" s="261"/>
@@ -6127,7 +6127,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="313"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="261"/>
       <c r="D66" s="261"/>
@@ -6138,7 +6138,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="313"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="261"/>
       <c r="D67" s="261"/>
@@ -6149,7 +6149,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="313"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="261"/>
       <c r="D68" s="261"/>
@@ -6160,7 +6160,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="313"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="261"/>
       <c r="D69" s="261"/>
@@ -6171,7 +6171,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="313"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="261"/>
       <c r="D70" s="261"/>
@@ -6182,7 +6182,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="313"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="261"/>
       <c r="D71" s="261"/>
@@ -6193,7 +6193,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="313"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="261"/>
       <c r="D72" s="261"/>
@@ -6204,7 +6204,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="313"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="261"/>
       <c r="D73" s="261"/>
@@ -6215,7 +6215,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="313"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="261"/>
       <c r="D74" s="261"/>
@@ -6226,7 +6226,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="313"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="261"/>
       <c r="D75" s="261"/>
@@ -6237,7 +6237,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="313"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="261"/>
       <c r="D76" s="261"/>
@@ -6248,7 +6248,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="313"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="261"/>
       <c r="D77" s="261"/>
@@ -6259,7 +6259,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="313"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="261"/>
       <c r="D78" s="261"/>
@@ -6270,7 +6270,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="313"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="261"/>
       <c r="D79" s="261"/>
@@ -6282,7 +6282,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="313"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="261"/>
       <c r="D80" s="261"/>
@@ -6294,7 +6294,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="313"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="261"/>
       <c r="D81" s="261"/>
@@ -6306,7 +6306,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="313"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="261"/>
       <c r="D82" s="261"/>
@@ -6318,7 +6318,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="313"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="295"/>
       <c r="C83" s="262">
         <f>SUM(C5:C72)</f>
@@ -6386,67 +6386,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="319"/>
+      <c r="Q1" s="319"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="319"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="319"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="321" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="321"/>
-      <c r="N3" s="321"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="322"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="323"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6455,52 +6455,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="324" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="326" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="314" t="s">
+      <c r="F4" s="315" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="314" t="s">
+      <c r="G4" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="314" t="s">
+      <c r="H4" s="315" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="314" t="s">
+      <c r="I4" s="315" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="314" t="s">
+      <c r="J4" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="314" t="s">
+      <c r="K4" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="314" t="s">
+      <c r="L4" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="314" t="s">
+      <c r="M4" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="314" t="s">
+      <c r="N4" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="316" t="s">
+      <c r="O4" s="317" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="328" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6513,22 +6513,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="324"/>
-      <c r="B5" s="326"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="315"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="315"/>
-      <c r="N5" s="315"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="328"/>
+      <c r="A5" s="325"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="329"/>
       <c r="Q5" s="133" t="s">
         <v>45</v>
       </c>
@@ -9741,8 +9741,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -9760,6 +9758,8 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9773,8 +9773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9801,14 +9801,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="334" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="335"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="336"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9902,14 +9902,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="337" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="338"/>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="339"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -10003,14 +10003,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="340" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="341"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -13481,12 +13481,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="331" t="s">
+      <c r="B35" s="332" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="331"/>
-      <c r="E35" s="331"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -14367,10 +14367,10 @@
         <v>257</v>
       </c>
       <c r="F43" s="140"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -23002,11 +23002,11 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="329" t="s">
+      <c r="A119" s="330" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="330"/>
-      <c r="C119" s="342"/>
+      <c r="B119" s="331"/>
+      <c r="C119" s="343"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
         <v>3288145</v>
@@ -23209,11 +23209,11 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="329" t="s">
+      <c r="A121" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="330"/>
-      <c r="C121" s="330"/>
+      <c r="B121" s="331"/>
+      <c r="C121" s="331"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
         <v>3288145</v>
@@ -34450,8 +34450,8 @@
   </sheetPr>
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34470,35 +34470,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="347" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="348"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="349"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="353" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="354"/>
+      <c r="B2" s="354"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="355"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="350" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="351"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="352"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34521,15 +34521,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="355" t="s">
+      <c r="A4" s="356" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="356"/>
+      <c r="B4" s="357"/>
       <c r="C4" s="272"/>
-      <c r="D4" s="357" t="s">
+      <c r="D4" s="358" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="358"/>
+      <c r="E4" s="359"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34845,7 +34845,7 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="310" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="298">
@@ -35008,13 +35008,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="343" t="s">
+      <c r="A19" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="344"/>
-      <c r="C19" s="344"/>
-      <c r="D19" s="344"/>
-      <c r="E19" s="345"/>
+      <c r="B19" s="345"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="345"/>
+      <c r="E19" s="346"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
